--- a/M1_Optimization/Ejemplo_1_LP/excel/M1_1_E1.xlsx
+++ b/M1_Optimization/Ejemplo_1_LP/excel/M1_1_E1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pm.deoliveiradejes/Downloads/PSE-main/M1.2/PL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pm.deoliveiradejes\Downloads\ME-main\ME-main\M1_Optimization\Ejemplo_1_LP\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E38DC0-1F85-014E-B022-140ACAA41487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D28AC3-13EE-47ED-B5A6-6D39783DA94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="920" windowWidth="24960" windowHeight="14440" activeTab="1" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 1" sheetId="13" r:id="rId1"/>
@@ -91,8 +91,8 @@
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -108,12 +108,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t>=</t>
   </si>
@@ -233,6 +236,21 @@
   </si>
   <si>
     <t>$V$16</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
   </si>
 </sst>
 </file>
@@ -286,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -392,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,9 +623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -636,7 +663,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -742,7 +769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -884,7 +911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -898,38 +925,38 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
@@ -948,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -971,7 +998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -994,7 +1021,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
@@ -1017,7 +1044,7 @@
         <v>3.5000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -1040,12 +1067,12 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
@@ -1064,7 +1091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
@@ -1110,7 +1137,7 @@
         <v>2.5000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>28</v>
       </c>
@@ -1142,38 +1169,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74410A91-2D92-814C-B795-1522C93EBDA1}">
   <dimension ref="G1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="2.125" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="9" width="5.1640625" customWidth="1"/>
+    <col min="8" max="9" width="5.125" customWidth="1"/>
     <col min="10" max="10" width="6.5" customWidth="1"/>
     <col min="11" max="12" width="1.5" customWidth="1"/>
     <col min="13" max="13" width="6.5" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="2.33203125" customWidth="1"/>
-    <col min="16" max="16" width="2.33203125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="5.83203125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="2.1640625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="1.83203125" style="10" customWidth="1"/>
-    <col min="20" max="20" width="5.83203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="2.375" customWidth="1"/>
+    <col min="16" max="16" width="2.375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="5.875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="2.125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="1.875" style="10" customWidth="1"/>
+    <col min="20" max="20" width="5.875" style="10" customWidth="1"/>
     <col min="21" max="21" width="2" style="10" customWidth="1"/>
-    <col min="22" max="22" width="2.1640625" style="10" customWidth="1"/>
-    <col min="23" max="23" width="5.83203125" style="10" customWidth="1"/>
-    <col min="24" max="24" width="2.33203125" customWidth="1"/>
-    <col min="25" max="25" width="5.83203125" customWidth="1"/>
+    <col min="22" max="22" width="2.125" style="10" customWidth="1"/>
+    <col min="23" max="23" width="5.875" style="10" customWidth="1"/>
+    <col min="24" max="24" width="2.375" customWidth="1"/>
+    <col min="25" max="25" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
@@ -1183,7 +1210,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
     </row>
-    <row r="2" spans="7:27" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:27" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G2" s="4"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -1194,7 +1221,7 @@
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="7:27" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:27" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1207,7 +1234,7 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
@@ -1217,7 +1244,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="7:27" s="3" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="7:27" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1227,7 +1254,7 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
     </row>
-    <row r="6" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -1237,7 +1264,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -1247,17 +1274,23 @@
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="T8" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1270,7 +1303,7 @@
       <c r="P9" s="5">
         <v>3</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="17">
         <v>6.6666666666666661</v>
       </c>
       <c r="R9" s="5" t="s">
@@ -1279,7 +1312,7 @@
       <c r="S9" s="5">
         <v>5</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="17">
         <v>1.666666666666667</v>
       </c>
       <c r="U9" s="5" t="s">
@@ -1288,7 +1321,7 @@
       <c r="V9" s="5">
         <v>2</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="17">
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
@@ -1299,7 +1332,7 @@
         <v>28.333333333333336</v>
       </c>
     </row>
-    <row r="10" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -1309,7 +1342,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1322,7 +1355,7 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -1332,7 +1365,7 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -1342,7 +1375,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P14" s="5">
         <v>1</v>
       </c>
@@ -1384,7 +1417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P15" s="5">
         <v>2</v>
       </c>
@@ -1426,7 +1459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="7:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -1436,7 +1469,7 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -1446,7 +1479,7 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -1456,7 +1489,7 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -1466,7 +1499,7 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -1476,7 +1509,7 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -1486,7 +1519,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -1496,7 +1529,7 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -1506,7 +1539,7 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -1516,7 +1549,7 @@
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -1526,7 +1559,7 @@
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
     </row>
-    <row r="26" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -1536,7 +1569,7 @@
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -1546,7 +1579,7 @@
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
     </row>
-    <row r="28" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -1556,7 +1589,7 @@
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -1566,7 +1599,7 @@
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -1576,7 +1609,7 @@
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
     </row>
-    <row r="31" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -1586,7 +1619,7 @@
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="16:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -1606,42 +1639,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF7352B-FC3B-BF4D-9E7B-640EFB95AE53}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
@@ -1660,7 +1693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -1683,7 +1716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
@@ -1706,7 +1739,7 @@
         <v>2.5000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
@@ -1729,12 +1762,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
@@ -1753,7 +1786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
@@ -1776,7 +1809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
@@ -1799,7 +1832,7 @@
         <v>0.50000000000000022</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>38</v>
       </c>
@@ -1822,7 +1855,7 @@
         <v>3.4999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>39</v>
       </c>
@@ -1855,41 +1888,41 @@
   <dimension ref="G1:X32"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="2.125" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="9" width="5.1640625" customWidth="1"/>
+    <col min="8" max="9" width="5.125" customWidth="1"/>
     <col min="10" max="10" width="6.5" customWidth="1"/>
     <col min="11" max="12" width="1.5" customWidth="1"/>
     <col min="13" max="13" width="6.5" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="2.33203125" customWidth="1"/>
+    <col min="15" max="15" width="2.375" customWidth="1"/>
     <col min="16" max="16" width="3.5" style="10" customWidth="1"/>
-    <col min="17" max="17" width="5.83203125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="2.1640625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="2.83203125" style="10" customWidth="1"/>
-    <col min="20" max="20" width="5.83203125" style="10" customWidth="1"/>
-    <col min="21" max="21" width="2.33203125" customWidth="1"/>
-    <col min="22" max="22" width="5.83203125" customWidth="1"/>
+    <col min="17" max="17" width="5.875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="2.125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="2.875" style="10" customWidth="1"/>
+    <col min="20" max="20" width="5.875" style="10" customWidth="1"/>
+    <col min="21" max="21" width="2.375" customWidth="1"/>
+    <col min="22" max="22" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="7:24" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:24" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G2" s="4"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -1897,7 +1930,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" spans="7:24" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:24" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,42 +1940,46 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="7:24" s="3" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="7:24" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
     </row>
-    <row r="8" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1955,7 +1992,7 @@
       <c r="P9" s="5">
         <v>10</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="17">
         <v>2.333333333333333</v>
       </c>
       <c r="R9" s="5" t="s">
@@ -1964,7 +2001,7 @@
       <c r="S9" s="5">
         <v>15</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="17">
         <v>0.33333333333333348</v>
       </c>
       <c r="U9" s="2" t="s">
@@ -1975,14 +2012,14 @@
         <v>28.333333333333329</v>
       </c>
     </row>
-    <row r="10" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
     </row>
-    <row r="11" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1992,21 +2029,21 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
     </row>
-    <row r="12" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
-    <row r="13" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
-    <row r="14" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P14" s="5">
         <v>1</v>
       </c>
@@ -2038,7 +2075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P15" s="5">
         <v>2</v>
       </c>
@@ -2070,7 +2107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="7:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P16" s="5">
         <v>1</v>
       </c>
@@ -2102,112 +2139,112 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
     </row>
-    <row r="24" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="16:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
